--- a/TestData/MenSparringTestData.xlsx
+++ b/TestData/MenSparringTestData.xlsx
@@ -6087,7 +6087,7 @@
   <dimension ref="A1:U356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
